--- a/tests/test_vendor_document.xlsx
+++ b/tests/test_vendor_document.xlsx
@@ -8,24 +8,70 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I1000928\Projects\smart-document-renamer\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{882E9880-7C5F-493C-85F4-4A9B75E3E7BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD86ADBA-4304-465A-844C-05AD8316161A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7270" xr2:uid="{F34DF576-2CC0-49DE-B50B-71A003A2F59E}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{F34DF576-2CC0-49DE-B50B-71A003A2F59E}"/>
   </bookViews>
   <sheets>
-    <sheet name="test_vendor_document" sheetId="1" r:id="rId1"/>
+    <sheet name="test_spreadsheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>House Music Limited</t>
+  </si>
+  <si>
+    <t>Music Lover</t>
+  </si>
+  <si>
+    <t>Orange Rower</t>
+  </si>
+  <si>
+    <t>Owner</t>
+  </si>
+  <si>
+    <t>Report</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Starboard Or Port Inc</t>
+  </si>
+  <si>
+    <t>ABC &amp; DEF Inc</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,8 +206,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,8 +398,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD3D3D3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -457,6 +524,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFC0C0C0"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFC0C0C0"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFC0C0C0"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFC0C0C0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -502,8 +584,20 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -879,14 +973,90 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CBC3EE0-6EAA-4467-8C9B-5BD58485DF43}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A64"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="2.26953125" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1234</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3">
+        <v>5678</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>9101</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
